--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891841.866234259</v>
+        <v>1967371.535899063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.11280140677169</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>141.8375587682022</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>142.3766723716365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68.19029374363589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>81.60336787529192</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>78.13981344678575</v>
+        <v>57.55818432831587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1183,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>142.1265188191253</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>268.3528239515857</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>23.354557052668</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>100.5892244534694</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.467071307535834</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>64.03417465124625</v>
+        <v>60.54139430664167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>259.3061888821581</v>
       </c>
       <c r="V19" t="n">
-        <v>110.273876262027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>76.3374999473611</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>101.5769296085227</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,19 +2526,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>30.48597889327033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>140.5678108961688</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>33.35146980186034</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>123.8662796794404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384976</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3123,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497981</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>36.69709007412094</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>174.7611531036561</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>164.367559713611</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>176.8594580520675</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.15549641656902</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,13 +3954,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>133.9620172021099</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>829.562656169633</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2335.244162608263</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2335.244162608263</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>369.8327295799424</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>243.4143268306408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.2786438284563</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>143.3161268880446</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>143.3161268880446</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>143.3161268880446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>136.3706261388411</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="C7" t="n">
         <v>257.3478788207</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="U7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="V7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="W7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>426.2840617486069</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2498.558261327377</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2498.558261327377</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2498.558261327377</v>
       </c>
       <c r="X8" t="n">
-        <v>1391.420115592515</v>
+        <v>2498.558261327377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.280783616703</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.4233909876364</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876364</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876364</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.4233909876364</v>
+        <v>382.8183646524922</v>
       </c>
     </row>
     <row r="11">
@@ -5036,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5272,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5282,34 +5284,34 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F16" t="n">
-        <v>273.4326673345467</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347402</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2497.969180129611</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.6944526764913</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>505.7582697485844</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V19" t="n">
-        <v>674.6944526764913</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W19" t="n">
-        <v>674.6944526764913</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X19" t="n">
-        <v>674.6944526764913</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.6944526764913</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>4412.072442972745</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>4243.136260044838</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>4093.019620632503</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3945.106527050109</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3798.216579552199</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.52789614688</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>1172.52789614688</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>883.1107261099196</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X22" t="n">
-        <v>655.1211752119023</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1357.047249045718</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1067.918610259276</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="V25" t="n">
-        <v>813.2341220533888</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y25" t="n">
-        <v>523.8169520164281</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3492.843747251887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>3492.843747251887</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>3492.843747251887</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>3492.843747251887</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>909.3712637033469</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>909.3712637033469</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>784.2538094816899</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.4612303381598</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,37 +6697,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207826</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014289</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231259</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690729</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409602</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748351</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742896</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.55287476978</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373966</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805654</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098437</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250799</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095311</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>3158.474758001775</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281736</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945769</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164466</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601275</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916989</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014289</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098063</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021841</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641228</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409486</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681284</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475751</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710797</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="C34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="D34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="E34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583031</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028577</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6931,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L36" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636243</v>
       </c>
       <c r="M36" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>1027.850635690701</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>858.9144527627943</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>708.7978133504586</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>560.8847197680655</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>413.9947722701551</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>245.8194505899757</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U37" t="n">
-        <v>1211.314749843308</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V37" t="n">
-        <v>1211.314749843308</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.314749843308</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.314749843308</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>1209.499100520941</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7199,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7211,13 +7213,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>154.3878371814097</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>303.4575213834695</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L39" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636243</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.2811958984813</v>
+        <v>263.2449295548424</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>263.2449295548424</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>263.2449295548424</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>263.2449295548424</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>263.2449295548424</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U40" t="n">
-        <v>874.927113122792</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V40" t="n">
-        <v>874.927113122792</v>
+        <v>955.1031435655729</v>
       </c>
       <c r="W40" t="n">
-        <v>874.927113122792</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="X40" t="n">
-        <v>874.927113122792</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="Y40" t="n">
-        <v>696.2811958984813</v>
+        <v>444.8933943850822</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7734,16 +7736,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2714843595163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3353014316094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3353014316094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>379.4222078492163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>232.532260351306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.712528333286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.919949189756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>104.6241510367947</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>76.43196988338514</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.86002301949857</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776735</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208082</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.671796620808</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928357</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>15.83804904622848</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.671796620808</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>127.6461250100647</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241321</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2425840815013</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>102.4593938121313</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>26.93116351641925</v>
       </c>
       <c r="V19" t="n">
-        <v>141.863767061801</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>90.15606851601649</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>184.6604227900547</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.0615821651189</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.06777566241163</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>101.8433757095967</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>2.105225817278892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338639</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112.2167382934152</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,13 +25368,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>111.4761992949213</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.126008749766584</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.72519530002725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>124.0913246820588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.53155126126768</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192542</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26326,34 +26328,34 @@
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="N2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,31 +26429,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="K4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687091</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26473,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871656</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526938</v>
+        <v>-304782.6746526941</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618505</v>
+        <v>285185.2045618502</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618504</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534617</v>
+        <v>-130984.1923534619</v>
       </c>
       <c r="F6" t="n">
         <v>394175.8441234343</v>
@@ -26537,31 +26539,31 @@
         <v>394175.8441234343</v>
       </c>
       <c r="H6" t="n">
+        <v>394175.844123434</v>
+      </c>
+      <c r="I6" t="n">
         <v>394175.8441234344</v>
       </c>
-      <c r="I6" t="n">
-        <v>394175.8441234342</v>
-      </c>
       <c r="J6" t="n">
-        <v>217752.6249308414</v>
+        <v>217752.6249308413</v>
       </c>
       <c r="K6" t="n">
         <v>394175.8441234343</v>
       </c>
       <c r="L6" t="n">
+        <v>394175.8441234349</v>
+      </c>
+      <c r="M6" t="n">
+        <v>259374.8288895969</v>
+      </c>
+      <c r="N6" t="n">
         <v>394175.8441234342</v>
       </c>
-      <c r="M6" t="n">
-        <v>259374.8288895973</v>
-      </c>
-      <c r="N6" t="n">
-        <v>394175.844123434</v>
-      </c>
       <c r="O6" t="n">
-        <v>394175.8441234343</v>
+        <v>394175.8441234339</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234344</v>
+        <v>394175.8441234342</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.6210402567089</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>109.3866087400871</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>24.87014872699129</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>157.5193616454013</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>332.1808021455031</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>238.9878728604422</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>146.8952920112985</v>
+        <v>167.4769211297684</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>109.097648689164</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>101.3782767268833</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>143.8922640459598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>185.9337738831216</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29800,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.376943252282217e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35261,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>415.0485280872609</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>283.5253848149098</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.8730558045727</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>495.6240934217708</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M33" t="n">
-        <v>349.2844000699651</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523327</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686858</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>340.4953046390455</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523325</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686858</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221144</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>57.74822800113516</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523325</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686858</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>438.070502060531</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967371.535899063</v>
+        <v>1960354.521007353</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>141.8375587682022</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>142.3766723716365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>148.3681250208883</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>110.2530958569708</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>25.31590541686246</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>57.55818432831587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>125.3159016295663</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>142.1265188191253</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>100.5892244534694</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>259.3061888821581</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.3374999473611</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.6700682149387</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>131.5416277745647</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>140.5678108961688</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.65680676724948</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883384976</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750029</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497981</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36.69709007412094</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.367559713611</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2335.244162608263</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.244162608263</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.475507338148</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.475507338148</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.4143268306408</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>243.4143268306408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>243.4143268306408</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W5" t="n">
-        <v>2135.941483343059</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>591.5106054277157</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>180.5247006381082</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2498.558261327377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2498.558261327377</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2498.558261327377</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2498.558261327377</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>2108.418929351565</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113634</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954967</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954967</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324574</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324574</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,31 +5500,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1236.990827242591</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>982.3063390367042</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>692.8891689997437</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>464.8996181017263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4412.072442972745</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C22" t="n">
-        <v>4243.136260044838</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D22" t="n">
-        <v>4093.019620632503</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>3945.106527050109</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>3798.216579552199</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116275</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972745</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9773700436151</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>230.0874225457048</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>230.0874225457048</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>822.1480540508779</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207826</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014289</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231259</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690729</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409602</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748351</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742896</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.55287476978</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373966</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805654</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098437</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095311</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001775</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281736</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945769</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164466</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601275</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916989</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014289</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098063</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021841</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641228</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409486</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681284</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475751</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710797</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,61 +6834,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6897,13 +6897,13 @@
         <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583031</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,67 +6922,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636243</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1027.850635690701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>858.9144527627943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>708.7978133504586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>560.8847197680655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>413.9947722701551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>245.8194505899757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557901</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557901</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520941</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.499100520941</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.499100520941</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636243</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2449295548424</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2449295548424</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2449295548424</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2449295548424</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2449295548424</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7332,52 +7332,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557901</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655729</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286123</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286123</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850822</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,13 +7496,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7602,13 +7602,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7733,13 +7733,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>76.43196988338514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270685</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776735</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208082</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.671796620808</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928357</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.671796620808</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,16 +11381,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241321</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G16" t="n">
-        <v>105.9521741567359</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>26.93116351641925</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.15606851601649</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>75.25074176866451</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.37220059297141</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.0528486217877</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338639</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>112.2167382934152</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>2.126008749766584</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192542</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26328,7 +26328,7 @@
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
@@ -26337,25 +26337,25 @@
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687091</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871656</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526941</v>
+        <v>-304782.674652694</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618502</v>
+        <v>285185.2045618507</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618504</v>
+        <v>285185.2045618506</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534619</v>
+        <v>-131958.7836131834</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637127</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637124</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.844123434</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234344</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308413</v>
+        <v>216778.0336711196</v>
       </c>
       <c r="K6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="L6" t="n">
-        <v>394175.8441234349</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.8288895969</v>
+        <v>258400.2376298753</v>
       </c>
       <c r="N6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="O6" t="n">
-        <v>394175.8441234339</v>
+        <v>393201.2528637124</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637124</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>109.3866087400871</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.87014872699129</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>68.08019533676952</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>238.9878728604422</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.88405377167454</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>167.4769211297684</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>288.4682683912287</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>109.097648689164</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>185.9337738831216</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4.376943252282217e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>283.5253848149098</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>224.2240319706461</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36849,13 +36849,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.257704956024</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523327</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686858</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523325</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686858</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221144</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523325</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686858</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960354.521007353</v>
+        <v>1965293.783856385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>148.3681250208883</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686246</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>108.1881165422755</v>
       </c>
       <c r="G8" t="n">
-        <v>125.3159016295663</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.435614114766</v>
+        <v>85.72292696797216</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.8923097339048</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>122.6700682149387</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.5416277745647</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.59950865297319</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.65680676724948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>215.9495548965046</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.6907158639456</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>174.7430637258772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355898</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.2778626358874</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2316.076120912494</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2062.314335550585</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1731.251448207015</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1378.482792936901</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1005.017034675821</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.8777027000092</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>227.427697035952</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355886</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355886</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355886</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573122</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.56455663271</v>
+        <v>177.1473116820518</v>
       </c>
       <c r="D8" t="n">
-        <v>977.29885802596</v>
+        <v>177.1473116820518</v>
       </c>
       <c r="E8" t="n">
-        <v>591.5106054277157</v>
+        <v>177.1473116820518</v>
       </c>
       <c r="F8" t="n">
-        <v>180.5247006381082</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4941,28 +4941,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.6859735286132</v>
+        <v>352.7420895073566</v>
       </c>
       <c r="C13" t="n">
-        <v>665.6859735286132</v>
+        <v>183.8059065794497</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>534.3905543375963</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137079</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1246.535803752148</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>957.4071649657059</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>702.722676759819</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,13 +5828,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L21" t="n">
         <v>1099.417155020476</v>
@@ -5843,10 +5843,10 @@
         <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1263.932007306658</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1263.932007306658</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1263.932007306658</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1263.932007306658</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.932007306658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1263.932007306658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>485.5200852635878</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L24" t="n">
         <v>1099.417155020476</v>
@@ -6080,10 +6080,10 @@
         <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8904636260082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9773700436151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>230.0874225457048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>230.0874225457048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>576.0756695821909</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336712</v>
+        <v>757.7241344124307</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>757.7241344124307</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,22 +6530,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635878</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L30" t="n">
         <v>1099.417155020476</v>
@@ -6554,10 +6554,10 @@
         <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,25 +6721,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590536</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>355.9158428611715</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.30006332127709</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.64859338270685</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231157</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231157</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.17985890344634</v>
+        <v>62.8925460502402</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>81.65525132448442</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>75.25074176866451</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>17.37220059297141</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>133.6473124456546</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.0528486217877</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>5.598006161884683</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>35.74324678262361</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26328,31 +26328,31 @@
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="M2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590214</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,13 +26441,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687075</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26456,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.674652694</v>
+        <v>-304782.6746526937</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618507</v>
+        <v>285185.2045618506</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618506</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="E6" t="n">
-        <v>-131958.7836131834</v>
+        <v>-131081.6514794343</v>
       </c>
       <c r="F6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="G6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.3849974624</v>
       </c>
       <c r="H6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="I6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.384997462</v>
       </c>
       <c r="J6" t="n">
-        <v>216778.0336711196</v>
+        <v>217655.1658048692</v>
       </c>
       <c r="K6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="L6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="M6" t="n">
-        <v>258400.2376298753</v>
+        <v>259277.3697636248</v>
       </c>
       <c r="N6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="O6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.384997462</v>
       </c>
       <c r="P6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.3849974619</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328917</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.49504793044665</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>68.08019533676952</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.468579306131</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167454</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>298.687929199436</v>
       </c>
       <c r="G8" t="n">
-        <v>288.4682683912287</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>107.5829646831825</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.05242827167913e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761838</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>224.2240319706461</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110549</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110549</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37168,7 +37168,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
